--- a/task2/table.xlsx
+++ b/task2/table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Десятичный вид</t>
   </si>
@@ -80,30 +80,6 @@
     <t>Число</t>
   </si>
   <si>
-    <t>E7DA0000</t>
-  </si>
-  <si>
-    <t>FCDA000000000000</t>
-  </si>
-  <si>
-    <t>43CFB300</t>
-  </si>
-  <si>
-    <t>3D6FDC0000000000</t>
-  </si>
-  <si>
-    <t>C1B8B4CC</t>
-  </si>
-  <si>
-    <t>C0B8B4CC00000000</t>
-  </si>
-  <si>
-    <t>43B5A3D7</t>
-  </si>
-  <si>
-    <t>40B5A3D700000000</t>
-  </si>
-  <si>
     <t>C3B06800</t>
   </si>
   <si>
@@ -117,6 +93,54 @@
   </si>
   <si>
     <t>№</t>
+  </si>
+  <si>
+    <t>43ACC20C</t>
+  </si>
+  <si>
+    <t>4075984189374BC7</t>
+  </si>
+  <si>
+    <t>C3ED7000</t>
+  </si>
+  <si>
+    <t>C07DAE0000000000</t>
+  </si>
+  <si>
+    <t>434BB020</t>
+  </si>
+  <si>
+    <t>40697604189374BC</t>
+  </si>
+  <si>
+    <t>C256F006</t>
+  </si>
+  <si>
+    <t>C04ADE00D1B71759</t>
+  </si>
+  <si>
+    <t>-352.8125</t>
+  </si>
+  <si>
+    <t>-474.875</t>
+  </si>
+  <si>
+    <t>203.688</t>
+  </si>
+  <si>
+    <t>-53.7344</t>
+  </si>
+  <si>
+    <t>345.516</t>
+  </si>
+  <si>
+    <t>-0.25</t>
+  </si>
+  <si>
+    <t>99.5625</t>
+  </si>
+  <si>
+    <t>186.1171875</t>
   </si>
 </sst>
 </file>
@@ -280,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -340,9 +364,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -679,7 +700,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +717,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -706,7 +727,7 @@
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>8</v>
@@ -758,7 +779,7 @@
       <c r="B4" s="11">
         <v>337</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11">
@@ -769,11 +790,11 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
+      <c r="A5" s="30">
         <v>2</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="23">
+      <c r="B5" s="31"/>
+      <c r="C5" s="22">
         <v>10000101000</v>
       </c>
       <c r="D5" s="6"/>
@@ -784,8 +805,8 @@
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32">
         <v>1.0010000001000101E+23</v>
       </c>
       <c r="D6" s="6"/>
@@ -812,14 +833,14 @@
       <c r="E7" s="10">
         <v>6</v>
       </c>
-      <c r="F7" s="19">
-        <v>-474.875</v>
+      <c r="F7" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -827,19 +848,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="19">
-        <v>203.68799999999999</v>
+      <c r="F8" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -850,30 +871,30 @@
       <c r="C9" s="13"/>
       <c r="D9" s="6"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="19">
-        <v>-53.734400000000001</v>
+      <c r="F9" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="35"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="6"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="19">
-        <v>345.51600000000002</v>
+      <c r="F10" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="21" t="s">
         <v>24</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -888,55 +909,63 @@
       <c r="E11" s="10">
         <v>7</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23" t="s">
-        <v>26</v>
+      <c r="F11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>5</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="6"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="G12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="23" t="s">
-        <v>28</v>
+      <c r="F13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="22" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="29"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>

--- a/task2/table.xlsx
+++ b/task2/table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Десятичный вид</t>
   </si>
@@ -141,6 +141,60 @@
   </si>
   <si>
     <t>186.1171875</t>
+  </si>
+  <si>
+    <t>0010 0100 0001</t>
+  </si>
+  <si>
+    <t>0111 0100 1001</t>
+  </si>
+  <si>
+    <t>0011 0011 0111</t>
+  </si>
+  <si>
+    <t>0100 0010 1000</t>
+  </si>
+  <si>
+    <t>1001 0000 0010 0011 0001 0001</t>
+  </si>
+  <si>
+    <t>902311</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>драйвер</t>
+  </si>
+  <si>
+    <t>226 232 228 229 238 234 224 240 242 224</t>
+  </si>
+  <si>
+    <t>01110100</t>
+  </si>
+  <si>
+    <t>10001100</t>
+  </si>
+  <si>
+    <t>00001100</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>01110101</t>
+  </si>
+  <si>
+    <t>10001011</t>
+  </si>
+  <si>
+    <t>-189 968</t>
+  </si>
+  <si>
+    <t>-379 798</t>
+  </si>
+  <si>
+    <t>-350 198</t>
   </si>
 </sst>
 </file>
@@ -304,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -388,16 +442,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -415,6 +460,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -700,14 +751,14 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
@@ -747,7 +798,9 @@
       <c r="B2" s="11">
         <v>241</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="33" t="s">
+        <v>39</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="10">
         <v>4</v>
@@ -755,8 +808,12 @@
       <c r="F2" s="11">
         <v>-116</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="G2" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>49</v>
+      </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -764,14 +821,20 @@
       <c r="B3" s="11">
         <v>749</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="33" t="s">
+        <v>40</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11">
         <v>12</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
+      <c r="G3" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>51</v>
+      </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -779,23 +842,31 @@
       <c r="B4" s="11">
         <v>337</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="33" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11">
         <v>-117</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
+      <c r="G4" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="22">
-        <v>10000101000</v>
+      <c r="B5" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="14"/>
@@ -805,9 +876,11 @@
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32">
-        <v>1.0010000001000101E+23</v>
+      <c r="B6" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
@@ -847,7 +920,9 @@
       <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="C8" s="22" t="s">
         <v>4</v>
       </c>
@@ -865,10 +940,12 @@
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="14"/>
       <c r="F9" s="19" t="s">
@@ -882,9 +959,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="34"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="6"/>
       <c r="E10" s="14"/>
       <c r="F10" s="19" t="s">
@@ -921,10 +998,12 @@
       <c r="A12" s="10">
         <v>5</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="10"/>
       <c r="F12" s="12" t="s">
@@ -937,10 +1016,12 @@
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="33" t="s">
+        <v>56</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="10"/>
       <c r="F13" s="12" t="s">
@@ -952,11 +1033,13 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="36" t="s">
+        <v>55</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="25"/>
       <c r="F14" s="26" t="s">
@@ -998,7 +1081,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B9:B14" numberStoredAsText="1"/>
+    <ignoredError sqref="B10:B11 B13:B14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>